--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon.</t>
+    <t>Beskrivelse av pasientens opphold i institusjon - bruker EpisodeOfCare.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -705,7 +705,7 @@
 </t>
   </si>
   <si>
-    <t>Organization that assumes care</t>
+    <t>Organisasjonen som har ansvar for oppholdet</t>
   </si>
   <si>
     <t>The organization that has assumed the specific responsibilities for the specified duration.</t>
@@ -717,7 +717,7 @@
     <t>EpisodeOfCare.period</t>
   </si>
   <si>
-    <t>Periode for pasientens opphold i institusjon.</t>
+    <t>Periode for pasientens (antatte) opphold i institusjon.</t>
   </si>
   <si>
     <t>The interval during which the managing organization assumes the defined responsibility.</t>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Institusjonsopphold B</t>
+    <t>Institusjonsopphold</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30</t>
+    <t>2024-06-06</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon - bruker EpisodeOfCare.</t>
+    <t>Beskrivelse av pasientens opphold i institusjon.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon.</t>
+    <t xml:space="preserve">Beskrivelse av pasientens opphold i institusjon. Dette kan være både av kortere og lengre karaktert, slik som døgnopphold, innleggelse hos spesialist, sykehjem og aldershjem. </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,7 +705,7 @@
 </t>
   </si>
   <si>
-    <t>Organisasjonen som har ansvar for oppholdet</t>
+    <t>Organisasjonen (institusjonen) som har ansvar for oppholdet</t>
   </si>
   <si>
     <t>The organization that has assumed the specific responsibilities for the specified duration.</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,9 @@
     <t>The list of diagnosis relevant to this episode of care.</t>
   </si>
   <si>
+    <t>TODO #15 Krav: Diagnose (utskrivningsdiagnose) (referanse). Sjekke om dette faktisk skal/bør være med.</t>
+  </si>
+  <si>
     <t>EpisodeOfCare.diagnosis.id</t>
   </si>
   <si>
@@ -686,7 +689,7 @@
 </t>
   </si>
   <si>
-    <t>The patient who is the focus of this episode of care</t>
+    <t>Pasienten som institusjonsoppholdet gjelder.</t>
   </si>
   <si>
     <t>The patient who is the focus of this episode of care.</t>
@@ -3300,7 +3303,9 @@
       <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3375,10 +3380,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3484,10 +3489,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3595,10 +3600,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3708,10 +3713,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3734,13 +3739,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3791,7 +3796,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -3806,21 +3811,21 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3846,10 +3851,10 @@
         <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3879,10 +3884,10 @@
         <v>111</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -3900,7 +3905,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3926,10 +3931,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3952,13 +3957,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4009,7 +4014,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4035,10 +4040,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4061,13 +4066,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4118,7 +4123,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -4133,21 +4138,21 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4170,13 +4175,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4227,7 +4232,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4242,7 +4247,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -4253,10 +4258,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4282,10 +4287,10 @@
         <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4336,7 +4341,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4351,21 +4356,21 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4388,13 +4393,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4445,7 +4450,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4460,7 +4465,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -4471,10 +4476,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4497,13 +4502,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4554,7 +4559,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4569,7 +4574,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -4580,14 +4585,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4606,13 +4611,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4663,7 +4668,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4678,7 +4683,7 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -4689,10 +4694,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4715,16 +4720,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4774,7 +4779,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-episodeofcare-institusjonsopphold.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Beskrivelse av pasientens opphold i institusjon. Dette kan være både av kortere og lengre karaktert, slik som døgnopphold, innleggelse hos spesialist, sykehjem og aldershjem. </t>
+    <t xml:space="preserve">Beskrivelse av pasientens opphold i institusjon. Dette kan være både av kortere og lengre karakter, slik som døgnopphold, innleggelse hos spesialist, sykehjem og aldershjem. </t>
   </si>
   <si>
     <t>Purpose</t>
